--- a/study.xlsx
+++ b/study.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>课程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +281,41 @@
   </si>
   <si>
     <t>多邻国（英语）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>角色变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -346,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,6 +402,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -671,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -682,9 +719,10 @@
     <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="5.625" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -695,107 +733,192 @@
       <c r="D1" s="6">
         <v>43590</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="E1" s="6">
+        <v>43591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="E5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="D6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="D7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -804,18 +927,34 @@
       <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/study.xlsx
+++ b/study.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mygit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>课程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,14 +311,30 @@
   </si>
   <si>
     <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,git diff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,12 +392,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -404,6 +412,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -464,7 +476,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,10 +508,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,7 +542,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -707,14 +717,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="5.625" customWidth="1"/>
@@ -722,239 +732,262 @@
     <col min="5" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" s="10" customFormat="1">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="6">
+      <c r="C1" s="9"/>
+      <c r="D1" s="5">
         <v>43590</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="5">
         <v>43591</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="F1" s="5">
+        <v>43592</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" s="7" customFormat="1">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="E2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="E3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="E4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" s="7" customFormat="1">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" s="7" customFormat="1">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" s="7" customFormat="1">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" s="7" customFormat="1">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" s="7" customFormat="1">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="E9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" s="7" customFormat="1">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="E10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" s="7" customFormat="1">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" s="7" customFormat="1">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="E12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -964,27 +997,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -992,35 +1025,35 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1032,12 +1065,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/study.xlsx
+++ b/study.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>课程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +327,34 @@
   </si>
   <si>
     <t>5,git diff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了侦测和运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h1,p,hr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用法</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,10 +746,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -729,7 +758,9 @@
     <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="5.625" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="12" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1">
@@ -769,7 +800,9 @@
       <c r="E2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -832,7 +865,9 @@
       <c r="E5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -853,7 +888,9 @@
       <c r="E6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -916,7 +953,9 @@
       <c r="E9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -981,7 +1020,9 @@
       <c r="E12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -998,6 +1039,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1066,6 +1108,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/study.xlsx
+++ b/study.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>课程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,6 +354,34 @@
         <charset val="134"/>
       </rPr>
       <t>用法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6,git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改删除</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -750,7 +778,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -823,7 +851,9 @@
       <c r="E3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -844,7 +874,9 @@
       <c r="E4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -911,7 +943,9 @@
       <c r="E7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -932,7 +966,9 @@
       <c r="E8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -976,7 +1012,9 @@
       <c r="E10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>

--- a/study.xlsx
+++ b/study.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mygit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>课程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,10 +335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习了侦测和运算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,14 +384,58 @@
       </rPr>
       <t>修改删除</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侦测和运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分支</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,7 +577,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -564,9 +609,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -598,6 +644,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -773,15 +820,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="5.625" customWidth="1"/>
@@ -791,7 +838,7 @@
     <col min="7" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1">
+    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -808,14 +855,18 @@
       <c r="F1" s="5">
         <v>43592</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="G1" s="5">
+        <v>43593</v>
+      </c>
+      <c r="H1" s="5">
+        <v>43594</v>
+      </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1">
+    <row r="2" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -829,16 +880,18 @@
         <v>33</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1">
+    <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -852,16 +905,18 @@
         <v>34</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1">
+    <row r="4" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -875,16 +930,18 @@
         <v>34</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" s="7" customFormat="1">
+    <row r="5" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -898,16 +955,18 @@
         <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1">
+    <row r="6" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -921,16 +980,18 @@
         <v>31</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" s="7" customFormat="1">
+    <row r="7" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -944,16 +1005,18 @@
         <v>29</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" s="7" customFormat="1">
+    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -967,16 +1030,18 @@
         <v>32</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="7" customFormat="1">
+    <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -990,16 +1055,18 @@
         <v>34</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="7" customFormat="1">
+    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1013,16 +1080,18 @@
         <v>35</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" s="7" customFormat="1">
+    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1044,7 +1113,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" s="7" customFormat="1">
+    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1061,7 +1130,9 @@
       <c r="F12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1076,7 +1147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1084,12 +1155,12 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1097,7 +1168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1105,7 +1176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1113,7 +1184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1121,7 +1192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1129,7 +1200,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1145,13 +1216,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/study.xlsx
+++ b/study.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mygit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>课程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,14 +423,26 @@
   </si>
   <si>
     <t>1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制角色移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,7 +584,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -609,10 +616,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -644,7 +650,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -820,25 +825,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="5.625" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="9" style="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="10" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -861,12 +868,14 @@
       <c r="H1" s="5">
         <v>43594</v>
       </c>
-      <c r="I1" s="5"/>
+      <c r="I1" s="5">
+        <v>43595</v>
+      </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="7" customFormat="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -891,7 +900,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="7" customFormat="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -916,7 +925,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="7" customFormat="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -936,12 +945,14 @@
         <v>48</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="7" customFormat="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -961,12 +972,14 @@
         <v>44</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="I5" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="7" customFormat="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -986,12 +999,14 @@
         <v>45</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="7" customFormat="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1016,7 +1031,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="7" customFormat="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1041,7 +1056,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="7" customFormat="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1061,12 +1076,14 @@
         <v>49</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="7" customFormat="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1091,7 +1108,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="7" customFormat="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1113,7 +1130,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="7" customFormat="1">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1134,7 +1151,9 @@
         <v>19</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -1147,7 +1166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1155,12 +1174,12 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1168,7 +1187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1176,7 +1195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1184,7 +1203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1192,7 +1211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1200,7 +1219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1216,13 +1235,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
